--- a/ML/newdata.xlsx
+++ b/ML/newdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tekworks\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9587F7C9-9C65-4C3F-BBD4-88E0B80096B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF1C82D-C7F1-4141-99FC-3A591160FC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D413DD55-315D-4193-8AF5-CD50EADEE7A3}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
